--- a/static/Attendance Records/Attendance_0198CS211108.xlsx
+++ b/static/Attendance Records/Attendance_0198CS211108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,72 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09-04-2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18:43:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10-04-2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18:19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11-04-2025</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17:33:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Attendance Records/Attendance_0198CS211108.xlsx
+++ b/static/Attendance Records/Attendance_0198CS211108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,50 +521,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tanishq Prajapati</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0198CS211108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10-04-2025</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18:19:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tanishq Prajapati</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0198CS211108</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>11-04-2025</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17:33:26</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Attendance Records/Attendance_0198CS211108.xlsx
+++ b/static/Attendance Records/Attendance_0198CS211108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,138 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10-04-2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18:19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11-04-2025</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12-04-2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11:19:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03-05-2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12:36:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tanishq Prajapati</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0198CS211108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>04-05-2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15:50:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
